--- a/src/main/resources/static/export/project-list.xlsx
+++ b/src/main/resources/static/export/project-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaCode\fssy-management\src\main\resources\static\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBEA205-952B-496F-8A4E-3AD791C5B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5DC58-9F3B-460E-B5B3-CDD0D3D7E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,26 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>项目简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资所属实业部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目联络人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划项目开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划项目结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年度*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,10 +36,6 @@
   </si>
   <si>
     <t>项目名称*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目来源*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,23 +48,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>月份*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目来源*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目简介</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>计划投资额*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分管经理人*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月份*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目联络人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划项目开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划项目结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资所属实业部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +103,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003B90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E8EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,17 +154,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -448,49 +539,241 @@
     <col min="30" max="30" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/static/export/project-list.xlsx
+++ b/src/main/resources/static/export/project-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaCode\fssy-management\src\main\resources\static\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5DC58-9F3B-460E-B5B3-CDD0D3D7E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2862A0-558A-4E7B-BF7F-595E915ED574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,15 +118,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,14 +132,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E8EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,22 +178,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -219,9 +195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -583,198 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
+    <row r="2" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
